--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Gdf11</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf11</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H2">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I2">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J2">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>2.224444299679</v>
+        <v>4.3962812266625</v>
       </c>
       <c r="R2">
-        <v>8.897777198716</v>
+        <v>17.58512490665</v>
       </c>
       <c r="S2">
-        <v>0.0376856928033535</v>
+        <v>0.1155585664644584</v>
       </c>
       <c r="T2">
-        <v>0.02593162861541354</v>
+        <v>0.09184598758271416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H3">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I3">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J3">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.1763068154536666</v>
+        <v>0.4305334418291667</v>
       </c>
       <c r="R3">
-        <v>1.057840892722</v>
+        <v>2.583200650975</v>
       </c>
       <c r="S3">
-        <v>0.002986923290137327</v>
+        <v>0.01131679817274966</v>
       </c>
       <c r="T3">
-        <v>0.003082965166651167</v>
+        <v>0.0134918925041805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H4">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I4">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J4">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.4756413021646667</v>
+        <v>0.8184534390375001</v>
       </c>
       <c r="R4">
-        <v>2.853847812988</v>
+        <v>4.910720634225001</v>
       </c>
       <c r="S4">
-        <v>0.008058134789237621</v>
+        <v>0.02151347951979878</v>
       </c>
       <c r="T4">
-        <v>0.008317236986108657</v>
+        <v>0.02564838116234511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H5">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I5">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J5">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>2.0899979051735</v>
+        <v>4.610279314550001</v>
       </c>
       <c r="R5">
-        <v>8.359991620693998</v>
+        <v>18.4411172582</v>
       </c>
       <c r="S5">
-        <v>0.03540795291003098</v>
+        <v>0.1211836188638447</v>
       </c>
       <c r="T5">
-        <v>0.02436430954543229</v>
+        <v>0.09631678112604741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H6">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I6">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J6">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>1.385920212919</v>
+        <v>0.1147413327666667</v>
       </c>
       <c r="R6">
-        <v>8.315521277514001</v>
+        <v>0.6884479966000001</v>
       </c>
       <c r="S6">
-        <v>0.02347973532156355</v>
+        <v>0.003016036337330361</v>
       </c>
       <c r="T6">
-        <v>0.02423470544342015</v>
+        <v>0.003595720046501149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H7">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I7">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J7">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>1.155027073651667</v>
+        <v>0.9435209641375001</v>
       </c>
       <c r="R7">
-        <v>6.930162441909999</v>
+        <v>5.661125784825001</v>
       </c>
       <c r="S7">
-        <v>0.01956803120827724</v>
+        <v>0.02480094525883331</v>
       </c>
       <c r="T7">
-        <v>0.02019722394420382</v>
+        <v>0.02956769947881319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J8">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>3.665517669734666</v>
+        <v>2.966616842497333</v>
       </c>
       <c r="R8">
-        <v>21.993106018408</v>
+        <v>17.799701054984</v>
       </c>
       <c r="S8">
-        <v>0.06209981202353275</v>
+        <v>0.0779790854800627</v>
       </c>
       <c r="T8">
-        <v>0.06409657655297019</v>
+        <v>0.09296670514144918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J9">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.2905245806484444</v>
@@ -1013,10 +1013,10 @@
         <v>2.614721225836</v>
       </c>
       <c r="S9">
-        <v>0.004921957407393985</v>
+        <v>0.007636591548969061</v>
       </c>
       <c r="T9">
-        <v>0.007620327891667428</v>
+        <v>0.01365652245947804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J10">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.7837784914604444</v>
+        <v>0.552293548084</v>
       </c>
       <c r="R10">
-        <v>7.054006423144</v>
+        <v>4.970641932756</v>
       </c>
       <c r="S10">
-        <v>0.01327847834145208</v>
+        <v>0.0145173266662488</v>
       </c>
       <c r="T10">
-        <v>0.02055815410191532</v>
+        <v>0.02596134628883887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J11">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>3.443972165195333</v>
+        <v>3.111023057445333</v>
       </c>
       <c r="R11">
-        <v>20.663832991172</v>
+        <v>18.666138344672</v>
       </c>
       <c r="S11">
-        <v>0.0583464719973347</v>
+        <v>0.08177487886260247</v>
       </c>
       <c r="T11">
-        <v>0.06022255119799225</v>
+        <v>0.09749205193155308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,40 +1169,40 @@
         <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J12">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>2.283768143814667</v>
+        <v>0.07742761501511111</v>
       </c>
       <c r="R12">
-        <v>20.553913294332</v>
+        <v>0.696848535136</v>
       </c>
       <c r="S12">
-        <v>0.03869073490143319</v>
+        <v>0.002035225622429251</v>
       </c>
       <c r="T12">
-        <v>0.05990220189138284</v>
+        <v>0.003639595524336043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J13">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>1.903294296064444</v>
+        <v>0.6366892924146667</v>
       </c>
       <c r="R13">
-        <v>17.12964866458</v>
+        <v>5.730203631732</v>
       </c>
       <c r="S13">
-        <v>0.03224489107963289</v>
+        <v>0.01673571323610813</v>
       </c>
       <c r="T13">
-        <v>0.04992254554839873</v>
+        <v>0.02992848867439415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H14">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I14">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J14">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>0.159340364512</v>
+        <v>0.4236250194836666</v>
       </c>
       <c r="R14">
-        <v>0.9560421870719999</v>
+        <v>2.541750116902</v>
       </c>
       <c r="S14">
-        <v>0.002699484104430099</v>
+        <v>0.01113520665446022</v>
       </c>
       <c r="T14">
-        <v>0.00278628362816237</v>
+        <v>0.01327539900424943</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H15">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I15">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J15">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.01262912820266667</v>
+        <v>0.04148613982588888</v>
       </c>
       <c r="R15">
-        <v>0.113662153824</v>
+        <v>0.373375258433</v>
       </c>
       <c r="S15">
-        <v>0.0002139579066504585</v>
+        <v>0.001090485025695977</v>
       </c>
       <c r="T15">
-        <v>0.0003312563008452615</v>
+        <v>0.00195011519859957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H16">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I16">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J16">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.03407091761066667</v>
+        <v>0.078866054327</v>
       </c>
       <c r="R16">
-        <v>0.306638258496</v>
+        <v>0.7097944889429999</v>
       </c>
       <c r="S16">
-        <v>0.0005772165815926421</v>
+        <v>0.002073035757008425</v>
       </c>
       <c r="T16">
-        <v>0.00089366470535393</v>
+        <v>0.00370721141668347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H17">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I17">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J17">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>0.149709762608</v>
+        <v>0.4442458441026667</v>
       </c>
       <c r="R17">
-        <v>0.898258575648</v>
+        <v>2.665475064615999</v>
       </c>
       <c r="S17">
-        <v>0.002536326094621577</v>
+        <v>0.01167723588540086</v>
       </c>
       <c r="T17">
-        <v>0.002617879416858814</v>
+        <v>0.01392160652746781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2723623333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.8170869999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0286564036226956</v>
+      </c>
+      <c r="J18">
+        <v>0.03764776556887273</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.082912</v>
-      </c>
-      <c r="H18">
-        <v>0.248736</v>
-      </c>
-      <c r="I18">
-        <v>0.009110562375116463</v>
-      </c>
-      <c r="J18">
-        <v>0.01140317515272633</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>0.09927559523200001</v>
+        <v>0.01105645813422222</v>
       </c>
       <c r="R18">
-        <v>0.8934803570880002</v>
+        <v>0.099508123208</v>
       </c>
       <c r="S18">
-        <v>0.001681889533185032</v>
+        <v>0.0002906248227288638</v>
       </c>
       <c r="T18">
-        <v>0.002603953805284828</v>
+        <v>0.0005197245909288361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H19">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I19">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J19">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>0.08273636474666667</v>
+        <v>0.09091754285233333</v>
       </c>
       <c r="R19">
-        <v>0.74462728272</v>
+        <v>0.8182578856709999</v>
       </c>
       <c r="S19">
-        <v>0.001401688154636656</v>
+        <v>0.002389815477401254</v>
       </c>
       <c r="T19">
-        <v>0.002170137296221133</v>
+        <v>0.004273708830943614</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H20">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I20">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J20">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N20">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O20">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P20">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q20">
-        <v>8.324446306385999</v>
+        <v>6.195462055158499</v>
       </c>
       <c r="R20">
-        <v>33.297785225544</v>
+        <v>24.781848220634</v>
       </c>
       <c r="S20">
-        <v>0.1410296163881218</v>
+        <v>0.1628509817199704</v>
       </c>
       <c r="T20">
-        <v>0.09704286597659628</v>
+        <v>0.1294340151708744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H21">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I21">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J21">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P21">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q21">
-        <v>0.6597857356579999</v>
+        <v>0.6067295208851666</v>
       </c>
       <c r="R21">
-        <v>3.958714413948</v>
+        <v>3.640377125311</v>
       </c>
       <c r="S21">
-        <v>0.01117784003565748</v>
+        <v>0.0159482048691377</v>
       </c>
       <c r="T21">
-        <v>0.01153725359540334</v>
+        <v>0.01901345790960355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H22">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I22">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J22">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N22">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O22">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P22">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q22">
-        <v>1.779972859532</v>
+        <v>1.1534060184135</v>
       </c>
       <c r="R22">
-        <v>10.679837157192</v>
+        <v>6.920436110481</v>
       </c>
       <c r="S22">
-        <v>0.03015562601064437</v>
+        <v>0.03031788440443533</v>
       </c>
       <c r="T22">
-        <v>0.03112525349290177</v>
+        <v>0.03614499711798126</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H23">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I23">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J23">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N23">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O23">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P23">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q23">
-        <v>7.821313100348999</v>
+        <v>6.497038993717999</v>
       </c>
       <c r="R23">
-        <v>31.285252401396</v>
+        <v>25.988155974872</v>
       </c>
       <c r="S23">
-        <v>0.1325057241762049</v>
+        <v>0.1707780903151438</v>
       </c>
       <c r="T23">
-        <v>0.09117755235875628</v>
+        <v>0.1357344837546817</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H24">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I24">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J24">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N24">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O24">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P24">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q24">
-        <v>5.186472144546</v>
+        <v>0.1616992946226667</v>
       </c>
       <c r="R24">
-        <v>31.118832867276</v>
+        <v>0.9701957677359999</v>
       </c>
       <c r="S24">
-        <v>0.08786724666502821</v>
+        <v>0.004250351085727748</v>
       </c>
       <c r="T24">
-        <v>0.09069254026452531</v>
+        <v>0.005067270713703327</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H25">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I25">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J25">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N25">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O25">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P25">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q25">
-        <v>4.32241025699</v>
+        <v>1.3296575060095</v>
       </c>
       <c r="R25">
-        <v>25.93446154194</v>
+        <v>7.977945036056999</v>
       </c>
       <c r="S25">
-        <v>0.0732286374347498</v>
+        <v>0.0349507475434671</v>
       </c>
       <c r="T25">
-        <v>0.07558323950203678</v>
+        <v>0.04166829889506063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H26">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I26">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J26">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N26">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O26">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P26">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q26">
-        <v>2.310199544501333</v>
+        <v>0.8009242910776666</v>
       </c>
       <c r="R26">
-        <v>13.861197267008</v>
+        <v>4.805545746466</v>
       </c>
       <c r="S26">
-        <v>0.03913852568081291</v>
+        <v>0.02105271663745707</v>
       </c>
       <c r="T26">
-        <v>0.04039699035674959</v>
+        <v>0.02509905942102079</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H27">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I27">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J27">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.456959</v>
       </c>
       <c r="O27">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P27">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q27">
-        <v>0.1831036743928889</v>
+        <v>0.07843553992655555</v>
       </c>
       <c r="R27">
-        <v>1.647933069536</v>
+        <v>0.705919859339</v>
       </c>
       <c r="S27">
-        <v>0.003102073099933966</v>
+        <v>0.002061719459348496</v>
       </c>
       <c r="T27">
-        <v>0.004802726275100788</v>
+        <v>0.003686974472994658</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.5149403333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.544821</v>
+      </c>
+      <c r="I28">
+        <v>0.05417907040598643</v>
+      </c>
+      <c r="J28">
+        <v>0.07117853894857162</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.202101333333333</v>
-      </c>
-      <c r="H28">
-        <v>3.606304</v>
-      </c>
-      <c r="I28">
-        <v>0.1320896755420687</v>
-      </c>
-      <c r="J28">
-        <v>0.1653291689420815</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N28">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O28">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P28">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q28">
-        <v>0.4939778981048888</v>
+        <v>0.149107667741</v>
       </c>
       <c r="R28">
-        <v>4.445801082944</v>
+        <v>1.341969009669</v>
       </c>
       <c r="S28">
-        <v>0.008368786452559627</v>
+        <v>0.003919373544282936</v>
       </c>
       <c r="T28">
-        <v>0.01295681606834836</v>
+        <v>0.007009018682138347</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H29">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I29">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J29">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N29">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O29">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P29">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q29">
-        <v>2.170570065178667</v>
+        <v>0.8399109386546667</v>
       </c>
       <c r="R29">
-        <v>13.023420391072</v>
+        <v>5.039465631928</v>
       </c>
       <c r="S29">
-        <v>0.03677297592764285</v>
+        <v>0.02207750119353366</v>
       </c>
       <c r="T29">
-        <v>0.03795537844355303</v>
+        <v>0.02632080808698381</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H30">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I30">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J30">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N30">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O30">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P30">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q30">
-        <v>1.439349254581333</v>
+        <v>0.02090383118488889</v>
       </c>
       <c r="R30">
-        <v>12.954143291232</v>
+        <v>0.188134480664</v>
       </c>
       <c r="S30">
-        <v>0.02438490990883231</v>
+        <v>0.0005494682075137973</v>
       </c>
       <c r="T30">
-        <v>0.03775347767839755</v>
+        <v>0.0009826144122758967</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H31">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I31">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J31">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N31">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O31">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P31">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q31">
-        <v>1.199554882008889</v>
+        <v>0.1718927476103334</v>
       </c>
       <c r="R31">
-        <v>10.79599393808</v>
+        <v>1.547034728493</v>
       </c>
       <c r="S31">
-        <v>0.02032240447228705</v>
+        <v>0.004518291363850462</v>
       </c>
       <c r="T31">
-        <v>0.03146378011993219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H32">
-        <v>1.257698</v>
-      </c>
-      <c r="I32">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J32">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.921801</v>
-      </c>
-      <c r="N32">
-        <v>3.843602</v>
-      </c>
-      <c r="O32">
-        <v>0.2963026861879742</v>
-      </c>
-      <c r="P32">
-        <v>0.2443427896918877</v>
-      </c>
-      <c r="Q32">
-        <v>0.8056817580326666</v>
-      </c>
-      <c r="R32">
-        <v>4.834090548195999</v>
-      </c>
-      <c r="S32">
-        <v>0.01364955518772323</v>
-      </c>
-      <c r="T32">
-        <v>0.01408844456199568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H33">
-        <v>1.257698</v>
-      </c>
-      <c r="I33">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J33">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.1523196666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.456959</v>
-      </c>
-      <c r="O33">
-        <v>0.02348459928608122</v>
-      </c>
-      <c r="P33">
-        <v>0.02904947932559493</v>
-      </c>
-      <c r="Q33">
-        <v>0.06385738004244444</v>
-      </c>
-      <c r="R33">
-        <v>0.574716420382</v>
-      </c>
-      <c r="S33">
-        <v>0.001081847546308007</v>
-      </c>
-      <c r="T33">
-        <v>0.001674950095926941</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H34">
-        <v>1.257698</v>
-      </c>
-      <c r="I34">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J34">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.4109286666666667</v>
-      </c>
-      <c r="N34">
-        <v>1.232786</v>
-      </c>
-      <c r="O34">
-        <v>0.06335685524410488</v>
-      </c>
-      <c r="P34">
-        <v>0.07836981309019599</v>
-      </c>
-      <c r="Q34">
-        <v>0.1722747207364444</v>
-      </c>
-      <c r="R34">
-        <v>1.550472486628</v>
-      </c>
-      <c r="S34">
-        <v>0.002918613068618546</v>
-      </c>
-      <c r="T34">
-        <v>0.004518687735567939</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H35">
-        <v>1.257698</v>
-      </c>
-      <c r="I35">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J35">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.8056465</v>
-      </c>
-      <c r="N35">
-        <v>3.611293</v>
-      </c>
-      <c r="O35">
-        <v>0.2783940211582334</v>
-      </c>
-      <c r="P35">
-        <v>0.2295746037219218</v>
-      </c>
-      <c r="Q35">
-        <v>0.7569859972523333</v>
-      </c>
-      <c r="R35">
-        <v>4.541915983513999</v>
-      </c>
-      <c r="S35">
-        <v>0.0128245700523984</v>
-      </c>
-      <c r="T35">
-        <v>0.01323693275932915</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H36">
-        <v>1.257698</v>
-      </c>
-      <c r="I36">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J36">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.197361</v>
-      </c>
-      <c r="N36">
-        <v>3.592083000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.1846087501446399</v>
-      </c>
-      <c r="P36">
-        <v>0.2283533989796044</v>
-      </c>
-      <c r="Q36">
-        <v>0.5019728449926667</v>
-      </c>
-      <c r="R36">
-        <v>4.517755604934001</v>
-      </c>
-      <c r="S36">
-        <v>0.008504233814597598</v>
-      </c>
-      <c r="T36">
-        <v>0.01316651989659364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H37">
-        <v>1.257698</v>
-      </c>
-      <c r="I37">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J37">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N37">
-        <v>2.993645</v>
-      </c>
-      <c r="O37">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P37">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q37">
-        <v>0.4183445921344444</v>
-      </c>
-      <c r="R37">
-        <v>3.76510132921</v>
-      </c>
-      <c r="S37">
-        <v>0.007087435629383014</v>
-      </c>
-      <c r="T37">
-        <v>0.0109729887800026</v>
+        <v>0.008080063873158117</v>
       </c>
     </row>
   </sheetData>
